--- a/xlsx/欧内斯特·海明威_intext.xlsx
+++ b/xlsx/欧内斯特·海明威_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="667">
   <si>
     <t>欧内斯特·海明威</t>
   </si>
@@ -29,7 +29,7 @@
     <t>海鸣威</t>
   </si>
   <si>
-    <t>政策_政策_美國_欧内斯特·海明威</t>
+    <t>政策_政策_美国_欧内斯特·海明威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛達荷州</t>
+    <t>爱达荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>記者</t>
+    <t>记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%83%85%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>愛情小說</t>
+    <t>爱情小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E5%A4%B1%E7%9A%84%E4%B8%80%E4%BB%A3</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%A5%A7%E5%A4%9A%E7%88%BE%C2%B7%E9%99%80%E6%80%9D%E5%A6%A5%E8%80%B6%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>費奧多爾·陀思妥耶夫斯基</t>
+    <t>费奥多尔·陀思妥耶夫斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8D%E4%BC%8D%E5%BE%B7%C2%B7%E5%AE%89%E5%BE%B7%E6%A3%AE</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%BE%B7%E8%90%8A%E8%B3%BD</t>
   </si>
   <si>
-    <t>西奧多·德萊賽</t>
+    <t>西奥多·德莱赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E7%BD%97%E5%A7%86%C2%B7%E5%A4%A7%E5%8D%AB%C2%B7%E5%A1%9E%E6%9E%97%E6%A0%BC</t>
@@ -137,15 +137,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%A7%86%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>柯姆·托賓</t>
+    <t>柯姆·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4%E5%AE%B6</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
   </si>
   <si>
@@ -203,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%AB%8B%E8%8C%B2%E7%8D%8E</t>
   </si>
   <si>
-    <t>普立茲獎</t>
+    <t>普立兹奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E7%85%A7%E5%B8%B8%E5%8D%87%E8%B5%B7_(%E5%B0%8F%E8%AF%B4)</t>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%B4%80%E7%99%BE%E5%A4%A7%E8%8B%B1%E6%96%87%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>20世紀百大英文小說</t>
+    <t>20世纪百大英文小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
@@ -239,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>美國內戰</t>
+    <t>美国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E4%BA%A7</t>
@@ -299,31 +293,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C</t>
   </si>
   <si>
-    <t>耶穌</t>
+    <t>耶稣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E7%8D%B5</t>
   </si>
   <si>
-    <t>打獵</t>
+    <t>打猎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%A3%E9%AD%9A</t>
   </si>
   <si>
-    <t>釣魚</t>
+    <t>钓鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E7%87%9F</t>
   </si>
   <si>
-    <t>露營</t>
+    <t>露营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B3%E6%93%8A</t>
   </si>
   <si>
-    <t>拳擊</t>
+    <t>拳击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
@@ -335,21 +329,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E5%90%8D</t>
   </si>
   <si>
-    <t>筆名</t>
+    <t>笔名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B</t>
   </si>
   <si>
@@ -371,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%A7%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>出租車</t>
+    <t>出租车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%88%98%E5%BD%B9_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98)</t>
@@ -395,19 +386,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD</t>
   </si>
   <si>
-    <t>米蘭</t>
+    <t>米兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%B9%E5%A3%95%E6%88%B0</t>
   </si>
   <si>
-    <t>塹壕戰</t>
+    <t>堑壕战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AB%E5%87%BB%E7%82%AE</t>
@@ -455,19 +446,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E6%98%9F%E5%A0%B1</t>
   </si>
   <si>
-    <t>多倫多星報</t>
+    <t>多伦多星报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%85%A7%E6%A8%A3%E6%98%87%E8%B5%B7</t>
   </si>
   <si>
-    <t>太陽照樣昇起</t>
+    <t>太阳照样昇起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8B%95%E7%9A%84%E9%A5%97%E5%AE%B4</t>
   </si>
   <si>
-    <t>流動的饗宴</t>
+    <t>流动的飨宴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B9%E6%8B%89%C2%B7%E5%BA%9E%E5%BE%B7</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%94%E5%85%92%E9%81%94%C2%B7%E8%B2%BB%E6%BB%8B%E6%9D%B0%E7%BE%85</t>
   </si>
   <si>
-    <t>潔兒達·費滋杰羅</t>
+    <t>洁儿达·费滋杰罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -521,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E7%AF%87%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>短篇小說</t>
+    <t>短篇小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BA%E4%BA%BA%E8%80%85</t>
   </si>
   <si>
-    <t>殺人者</t>
+    <t>杀人者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
@@ -539,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%9F%8B%E6%96%AF%E7%89%B9_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>基韋斯特 (佛羅里達州)</t>
+    <t>基韦斯特 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E5%B0%BF%E7%97%85</t>
@@ -557,25 +548,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>手槍</t>
+    <t>手枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84</t>
   </si>
   <si>
-    <t>地獄</t>
+    <t>地狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E6%98%A5%E5%A4%A2</t>
   </si>
   <si>
-    <t>戰地春夢</t>
+    <t>战地春梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E5%A3%AB</t>
   </si>
   <si>
-    <t>護士</t>
+    <t>护士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%A4%9A%E6%96%AF%C2%B7%E5%B8%95%E7%B4%A2%E6%96%AF</t>
@@ -593,13 +584,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%A5%E7%89%9B</t>
   </si>
   <si>
-    <t>鬥牛</t>
+    <t>斗牛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E6%99%AE%E6%B4%9B%E7%B4%8D</t>
   </si>
   <si>
-    <t>潘普洛納</t>
+    <t>潘普洛纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%B7%B4%E8%96%A9</t>
   </si>
   <si>
-    <t>蒙巴薩</t>
+    <t>蒙巴萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E6%B4%9B%E6%AF%94</t>
@@ -653,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90</t>
   </si>
   <si>
-    <t>獅子</t>
+    <t>狮子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9E%E5%8A%9B%E9%A6%AC%E6%89%8E%E7%BE%85%E7%9A%84%E9%9B%AA</t>
   </si>
   <si>
-    <t>乞力馬扎羅的雪</t>
+    <t>乞力马扎罗的雪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>西班牙內戰</t>
+    <t>西班牙内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AD%E7%96%BD%E7%97%85</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E</t>
   </si>
   <si>
-    <t>腎</t>
+    <t>肾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%A0%E8%B9%8A</t>
@@ -701,25 +692,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>潛艇</t>
+    <t>潜艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
+    <t>联邦调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B</t>
   </si>
   <si>
-    <t>約翰·埃德加·胡佛</t>
+    <t>约翰·埃德加·胡佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/D%E6%97%A5</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%A8%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>黨衛隊</t>
+    <t>党卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%AF%87%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>中篇小說</t>
+    <t>中篇小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E7%AD%96%E5%A5%96</t>
@@ -773,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%80%AB%C2%B7%E7%99%BD%E7%83%88%E6%A3%AE</t>
   </si>
   <si>
-    <t>凱倫·白烈森</t>
+    <t>凯伦·白烈森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E9%9C%87%E7%9B%AA</t>
   </si>
   <si>
-    <t>腦震盪</t>
+    <t>脑震荡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%AC%E7%BA%A6%E8%82%8C</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%9D%E8%87%9F</t>
   </si>
   <si>
-    <t>肝臟</t>
+    <t>肝脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%BE%E8%84%8F</t>
@@ -827,37 +818,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E9%9A%AA%E5%A4%8F%E6%97%A5</t>
   </si>
   <si>
-    <t>危險夏日</t>
+    <t>危险夏日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>生活 (雜誌)</t>
+    <t>生活 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>高血壓</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%82%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>憂鬱症</t>
+    <t>忧郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%9F%B7%E7%8B%82</t>
   </si>
   <si>
-    <t>偏執狂</t>
+    <t>偏执狂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%97%99%E6%94%A3%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>電痙攣療法</t>
+    <t>电痉挛疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%8E%E6%9E%AA</t>
@@ -869,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%81%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>躁鬱症</t>
+    <t>躁郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%97%E9%85%92</t>
@@ -887,19 +878,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E4%BD%8D%E5%A6%8A%E5%A8%A0</t>
   </si>
   <si>
-    <t>異位妊娠</t>
+    <t>异位妊娠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>女同性戀</t>
+    <t>女同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%95%E8%AB%96%E5%AE%B6</t>
   </si>
   <si>
-    <t>評論家</t>
+    <t>评论家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%91%BD</t>
@@ -923,19 +914,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%86%85%E6%88%98</t>
   </si>
   <si>
-    <t>西班牙内战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E9%90%98%E8%81%B2</t>
   </si>
   <si>
-    <t>戰地鐘聲</t>
+    <t>战地钟声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%94%90%E5%B0%BC</t>
   </si>
   <si>
-    <t>約翰·唐尼</t>
+    <t>约翰·唐尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BF%97%E6%B8%85</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%E5%A8%81%E7%88%BE%C2%B7%E6%9F%8F%E9%87%91%E6%96%AF</t>
   </si>
   <si>
-    <t>麥克斯威爾·柏金斯</t>
+    <t>麦克斯威尔·柏金斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%94%B8%E5%9C%92</t>
   </si>
   <si>
-    <t>伊甸園</t>
+    <t>伊甸园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%8B%E9%87%8C%E5%B8%83%E7%BA%B3%E4%B9%8B%E5%AD%90%E5%85%AC%E5%8F%B8</t>
@@ -977,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E7%B8%B1%E9%9A%8A</t>
   </si>
   <si>
-    <t>第五縱隊</t>
+    <t>第五纵队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%8D%E5%8D%96%E4%BC%9A</t>
@@ -1007,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B1%B3%E6%AD%87%E7%88%BE%E5%A4%A7%E9%81%93</t>
   </si>
   <si>
-    <t>聖米歇爾大道</t>
+    <t>圣米歇尔大道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%B7%87</t>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E4%B9%94%E4%BC%8A%E6%96%AF</t>
@@ -1049,31 +1037,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E8%8E%AB%E7%88%BE%C2%B7%E5%80%AB%E7%B4%8D%E5%BE%B7</t>
   </si>
   <si>
-    <t>埃爾莫爾·倫納德</t>
+    <t>埃尔莫尔·伦纳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A3%BD%E5%8B%87%E6%95%A2%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>銀製勇敢勳章</t>
+    <t>银制勇敢勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E6%98%9F%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>銅星勳章</t>
+    <t>铜星勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E8%A6%96</t>
   </si>
   <si>
-    <t>近視</t>
+    <t>近视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>網球</t>
+    <t>网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B</t>
@@ -1097,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BE%B2%E6%A5%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國農業部</t>
+    <t>美国农业部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>動物園</t>
+    <t>动物园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
@@ -1121,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%85%A7%E5%B8%B8%E5%8D%87%E8%B5%B7</t>
   </si>
   <si>
-    <t>太陽照常升起</t>
+    <t>太阳照常升起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A7%E9%92%9F%E4%B8%BA%E8%B0%81%E8%80%8C%E9%B8%A3</t>
@@ -1169,25 +1157,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%B3%93%E5%A1%9E%C2%B7%E5%B1%88%E8%B3%BD</t>
   </si>
   <si>
-    <t>史賓塞·屈賽</t>
+    <t>史宾塞·屈赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%C2%B7%E9%A6%AC%E6%A6%AE</t>
   </si>
   <si>
-    <t>李·馬榮</t>
+    <t>李·马荣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E5%A5%8E%E6%81%A9</t>
   </si>
   <si>
-    <t>安東尼·奎恩</t>
+    <t>安东尼·奎恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E5%A5%A7%E5%94%90%E7%B4%8D</t>
   </si>
   <si>
-    <t>克里斯·奧唐納</t>
+    <t>克里斯·奥唐纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1223,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E6%96%87%E5%AD%B8%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>諾貝爾文學獎得主列表</t>
+    <t>诺贝尔文学奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%88%A9%C2%B7%E6%99%AE%E5%90%95%E5%A4%9A%E5%A7%86</t>
@@ -1271,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%BE%B7%E4%BA%9E%E5%BE%B7%C2%B7%E5%90%89%E5%8D%9C%E6%9E%97</t>
   </si>
   <si>
-    <t>魯德亞德·吉卜林</t>
+    <t>鲁德亚德·吉卜林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AD%E9%93%BF</t>
@@ -1379,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E9%BD%8A%E4%BA%9E%C2%B7%E9%BB%9B%E8%90%8A%E9%81%94</t>
   </si>
   <si>
-    <t>格拉齊亞·黛萊達</t>
+    <t>格拉齐亚·黛莱达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%9F%8F%E6%A0%BC%E6%A3%AE</t>
@@ -1439,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%C2%B7%E9%A6%AC%E4%B8%81%C2%B7%E6%9D%9C%C2%B7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>羅傑·馬丁·杜·加爾</t>
+    <t>罗杰·马丁·杜·加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E7%8F%8D%E7%8F%A0</t>
@@ -1451,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E6%96%AF%C2%B7%E5%9F%83%E7%B1%B3%E7%88%BE%C2%B7%E8%A5%BF%E8%98%AD%E5%B8%95</t>
   </si>
   <si>
-    <t>弗蘭斯·埃米爾·西蘭帕</t>
+    <t>弗兰斯·埃米尔·西兰帕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E5%86%85%E6%96%AF%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%BB%B6%E6%A3%AE</t>
@@ -1463,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%A4%AB%E5%88%97%E6%8B%89%C2%B7%E7%B1%B3%E6%96%AF%E7%89%B9%E6%8B%89%E7%88%BE</t>
   </si>
   <si>
-    <t>加夫列拉·米斯特拉爾</t>
+    <t>加夫列拉·米斯特拉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E6%9B%BC%C2%B7%E9%BB%91%E5%A1%9E</t>
@@ -1475,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E7%B4%80%E5%BE%B7</t>
   </si>
   <si>
-    <t>安德烈·紀德</t>
+    <t>安德烈·纪德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T%C2%B7S%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
@@ -1487,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
   </si>
   <si>
-    <t>威廉·福克納</t>
+    <t>威廉·福克纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E5%85%B0%C2%B7%E7%BD%97%E7%B4%A0</t>
@@ -1535,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E9%87%8C%E6%96%AF%C2%B7%E5%B8%95%E6%96%AF%E6%8D%B7%E7%88%BE%E7%B4%8D%E5%85%8B</t>
   </si>
   <si>
-    <t>鮑里斯·帕斯捷爾納克</t>
+    <t>鲍里斯·帕斯捷尔纳克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%93%A6%E5%A4%9A%E5%B0%94%C2%B7%E5%A4%B8%E8%A5%BF%E8%8E%AB%E5%A4%9A</t>
@@ -1559,13 +1547,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8F%B2%E5%9D%A6%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·史坦貝克</t>
+    <t>约翰·史坦贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%A1%9E%E8%8F%B2%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>喬治·塞菲里斯</t>
+    <t>乔治·塞菲里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E4%BF%9D%E7%BD%97%C2%B7%E8%90%A8%E7%89%B9</t>
@@ -1577,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E7%88%BE%C2%B7%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%BE%85%E7%B6%AD%E5%A5%87%C2%B7%E8%82%96%E6%B4%9B%E9%9C%8D%E5%A4%AB</t>
   </si>
   <si>
-    <t>米哈伊爾·亞歷山大羅維奇·肖洛霍夫</t>
+    <t>米哈伊尔·亚历山大罗维奇·肖洛霍夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E9%98%BF%E6%A0%BC%E5%86%9C</t>
@@ -1667,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%96%A9%E5%85%8B%C2%B7%E5%B7%B4%E4%BB%80%E7%B6%AD%E6%96%AF%C2%B7%E8%BE%9B%E6%A0%BC</t>
   </si>
   <si>
-    <t>艾薩克·巴什維斯·辛格</t>
+    <t>艾萨克·巴什维斯·辛格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E4%BF%AE%E6%96%AF%C2%B7%E5%9F%83%E9%87%8C%E8%92%82%E6%96%AF</t>
@@ -1685,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E4%BA%9E%E6%96%AF%C2%B7%E5%8D%A1%E5%85%A7%E8%92%82</t>
   </si>
   <si>
-    <t>埃利亞斯·卡內蒂</t>
+    <t>埃利亚斯·卡内蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%A4%AB%E5%88%97%E5%B0%94%C2%B7%E5%8A%A0%E8%A5%BF%E4%BA%9A%C2%B7%E9%A9%AC%E5%B0%94%E5%85%8B%E6%96%AF</t>
@@ -1727,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%90%89%E5%B8%83%C2%B7%E9%A6%AC%E5%93%88%E7%A6%8F%E8%8C%B2</t>
   </si>
   <si>
-    <t>納吉布·馬哈福茲</t>
+    <t>纳吉布·马哈福兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%B1%B3%E6%B4%9B%C2%B7%E4%BD%95%E5%A1%9E%C2%B7%E5%A1%9E%E6%8B%89</t>
@@ -1745,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%B8%81%C2%B7%E6%88%88%E8%BF%AA%E9%BB%98</t>
   </si>
   <si>
-    <t>納丁·戈迪默</t>
+    <t>纳丁·戈迪默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E6%B2%83%E5%B0%94%E7%A7%91%E7%89%B9</t>
@@ -1775,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%96%AF%E6%8B%89%E7%93%A6%C2%B7%E8%BE%9B%E6%B3%A2%E7%B5%B2%E5%8D%A1</t>
   </si>
   <si>
-    <t>維斯拉瓦·辛波絲卡</t>
+    <t>维斯拉瓦·辛波丝卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E9%87%8C%E5%A5%A5%C2%B7%E7%A6%8F</t>
@@ -1811,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/V%C2%B7S%C2%B7%E5%A5%88%E6%B3%A2%E7%88%BE</t>
   </si>
   <si>
-    <t>V·S·奈波爾</t>
+    <t>V·S·奈波尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%B0%94%E6%B3%B0%E6%96%AF%C2%B7%E4%BC%8A%E5%A7%86%E9%9B%B7</t>
@@ -1901,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%B6%AD%E6%8B%89%E5%A8%9C%C2%B7%E4%BA%9E%E6%AD%B7%E5%A1%9E%E7%B6%AD%E5%A5%87</t>
   </si>
   <si>
-    <t>斯維拉娜·亞歷塞維奇</t>
+    <t>斯维拉娜·亚历塞维奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%8B%83%C2%B7%E8%BF%AA%E4%BC%A6</t>
@@ -1919,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1937,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1955,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1985,13 +1973,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2978,7 +2966,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>34</v>
@@ -3004,10 +2992,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -3033,10 +3021,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3062,10 +3050,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -3091,10 +3079,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -3120,10 +3108,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -3149,10 +3137,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -3178,10 +3166,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3207,10 +3195,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -3236,10 +3224,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3265,10 +3253,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3294,10 +3282,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3323,10 +3311,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3352,10 +3340,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3381,10 +3369,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3410,10 +3398,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3439,10 +3427,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3468,10 +3456,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3497,10 +3485,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3526,10 +3514,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3555,10 +3543,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3584,10 +3572,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3613,10 +3601,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3642,10 +3630,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3671,10 +3659,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3700,10 +3688,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3729,10 +3717,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3758,10 +3746,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3787,10 +3775,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -3816,10 +3804,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3845,10 +3833,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -3874,10 +3862,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3903,10 +3891,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
@@ -3932,10 +3920,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3961,10 +3949,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="G55" t="n">
         <v>8</v>
@@ -3990,10 +3978,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4019,10 +4007,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4048,10 +4036,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4077,10 +4065,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4106,10 +4094,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>12</v>
@@ -4135,10 +4123,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4164,10 +4152,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4193,10 +4181,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -4222,10 +4210,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4251,10 +4239,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4280,10 +4268,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4309,10 +4297,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4338,10 +4326,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4367,10 +4355,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -4396,10 +4384,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4425,10 +4413,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4454,10 +4442,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4483,10 +4471,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4541,10 +4529,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -4570,10 +4558,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4599,10 +4587,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4628,10 +4616,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4657,10 +4645,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4686,10 +4674,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4715,10 +4703,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4744,10 +4732,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4773,10 +4761,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>8</v>
@@ -4802,10 +4790,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4831,10 +4819,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>12</v>
@@ -4860,10 +4848,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -4889,10 +4877,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4918,10 +4906,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>8</v>
@@ -4947,10 +4935,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4976,10 +4964,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>11</v>
@@ -5005,10 +4993,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5034,10 +5022,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5063,10 +5051,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>9</v>
@@ -5092,10 +5080,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5121,10 +5109,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5150,10 +5138,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>18</v>
@@ -5179,10 +5167,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -5208,10 +5196,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5237,10 +5225,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5266,10 +5254,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5295,10 +5283,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5324,10 +5312,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5353,10 +5341,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5382,10 +5370,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5411,10 +5399,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5440,10 +5428,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -5469,10 +5457,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5498,10 +5486,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -5527,10 +5515,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>9</v>
@@ -5556,10 +5544,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5585,10 +5573,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5614,10 +5602,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5643,10 +5631,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5672,10 +5660,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5701,10 +5689,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5730,10 +5718,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5759,10 +5747,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5788,10 +5776,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5817,10 +5805,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5846,10 +5834,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5875,10 +5863,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5904,10 +5892,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>6</v>
@@ -5933,10 +5921,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5962,10 +5950,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5991,10 +5979,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6020,10 +6008,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6078,10 +6066,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6107,10 +6095,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6136,10 +6124,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6165,10 +6153,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6194,10 +6182,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6223,10 +6211,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6252,10 +6240,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6281,10 +6269,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F135" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6310,10 +6298,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6339,10 +6327,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6368,10 +6356,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6397,10 +6385,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6426,10 +6414,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -6455,10 +6443,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6484,10 +6472,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6513,10 +6501,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6542,10 +6530,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6571,10 +6559,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6600,10 +6588,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6629,10 +6617,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6658,10 +6646,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>5</v>
@@ -6687,10 +6675,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6716,10 +6704,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6745,10 +6733,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6774,10 +6762,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6803,10 +6791,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6832,10 +6820,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6861,10 +6849,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6890,10 +6878,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6919,10 +6907,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>10</v>
@@ -6948,10 +6936,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6977,10 +6965,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -7006,10 +6994,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G160" t="n">
         <v>25</v>
@@ -7035,10 +7023,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7064,10 +7052,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>32</v>
@@ -7093,10 +7081,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7122,10 +7110,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7151,10 +7139,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>5</v>
@@ -7180,10 +7168,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7209,10 +7197,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>6</v>
@@ -7238,10 +7226,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F168" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7267,10 +7255,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7296,10 +7284,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>6</v>
@@ -7325,10 +7313,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7354,10 +7342,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7383,10 +7371,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7412,10 +7400,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F174" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7441,10 +7429,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7470,10 +7458,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F176" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G176" t="n">
         <v>7</v>
@@ -7499,10 +7487,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F177" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7528,10 +7516,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7557,10 +7545,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7586,10 +7574,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7644,10 +7632,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7673,10 +7661,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7702,10 +7690,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F184" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7731,10 +7719,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7760,10 +7748,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F186" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7789,10 +7777,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F187" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7818,10 +7806,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F188" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7847,10 +7835,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F189" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -7876,10 +7864,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7905,10 +7893,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7934,10 +7922,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F192" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7963,10 +7951,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F193" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G193" t="n">
         <v>8</v>
@@ -7992,10 +7980,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F194" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8021,10 +8009,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8050,10 +8038,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8079,10 +8067,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8108,10 +8096,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8137,10 +8125,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8166,10 +8154,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -8195,10 +8183,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8224,10 +8212,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8253,10 +8241,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8282,10 +8270,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8311,10 +8299,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F205" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8340,10 +8328,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8369,10 +8357,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8398,10 +8386,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8427,10 +8415,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8456,10 +8444,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8485,10 +8473,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8514,10 +8502,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8543,10 +8531,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8572,10 +8560,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8601,10 +8589,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8630,10 +8618,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8659,10 +8647,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -8688,10 +8676,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8717,10 +8705,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8746,10 +8734,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8775,10 +8763,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8804,10 +8792,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8833,10 +8821,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8862,10 +8850,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8891,10 +8879,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8920,10 +8908,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8949,10 +8937,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8978,10 +8966,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9007,10 +8995,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9036,10 +9024,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9065,10 +9053,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9094,10 +9082,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9123,10 +9111,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9152,10 +9140,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9181,10 +9169,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9210,10 +9198,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9239,10 +9227,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9268,10 +9256,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9297,10 +9285,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9326,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F240" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9355,10 +9343,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F241" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9384,10 +9372,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F242" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9413,10 +9401,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9442,10 +9430,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F244" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9471,10 +9459,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F245" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9500,10 +9488,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F246" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9529,10 +9517,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9558,10 +9546,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9587,10 +9575,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F249" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9616,10 +9604,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9645,10 +9633,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F251" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9674,10 +9662,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9703,10 +9691,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F253" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9732,10 +9720,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9761,10 +9749,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F255" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9790,10 +9778,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9819,10 +9807,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9848,10 +9836,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9877,10 +9865,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9906,10 +9894,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9935,10 +9923,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9964,10 +9952,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9993,10 +9981,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10022,10 +10010,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10051,10 +10039,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10080,10 +10068,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10109,10 +10097,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10138,10 +10126,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10167,10 +10155,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10196,10 +10184,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10225,10 +10213,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10254,10 +10242,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10283,10 +10271,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10312,10 +10300,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10341,10 +10329,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10370,10 +10358,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10399,10 +10387,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10428,10 +10416,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F278" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10457,10 +10445,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F279" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10486,10 +10474,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10515,10 +10503,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F281" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10544,10 +10532,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10573,10 +10561,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F283" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10602,10 +10590,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F284" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10631,10 +10619,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F285" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10660,10 +10648,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F286" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10689,10 +10677,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F287" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10718,10 +10706,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F288" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10747,10 +10735,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F289" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10776,10 +10764,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F290" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10805,10 +10793,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F291" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10834,10 +10822,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F292" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10863,10 +10851,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10892,10 +10880,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10921,10 +10909,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -10950,10 +10938,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10979,10 +10967,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F297" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11008,10 +10996,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F298" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11037,10 +11025,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11066,10 +11054,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11095,10 +11083,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11124,10 +11112,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11153,10 +11141,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F303" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11182,10 +11170,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11211,10 +11199,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11240,10 +11228,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11269,10 +11257,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11298,10 +11286,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11327,10 +11315,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11356,10 +11344,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -11385,10 +11373,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11414,10 +11402,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11443,10 +11431,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G313" t="n">
         <v>4</v>
@@ -11472,10 +11460,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11501,10 +11489,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11530,10 +11518,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11559,10 +11547,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11588,10 +11576,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11617,10 +11605,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11646,10 +11634,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11675,10 +11663,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11704,10 +11692,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11733,10 +11721,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G323" t="n">
         <v>6</v>
@@ -11762,10 +11750,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11791,10 +11779,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11820,10 +11808,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -11849,10 +11837,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11878,10 +11866,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11907,10 +11895,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11936,10 +11924,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11965,10 +11953,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11994,10 +11982,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12023,10 +12011,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -12052,10 +12040,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12081,10 +12069,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12110,10 +12098,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12139,10 +12127,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12168,10 +12156,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12197,10 +12185,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12226,10 +12214,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12255,10 +12243,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12284,10 +12272,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12313,10 +12301,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12342,10 +12330,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F344" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12371,10 +12359,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F345" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12400,10 +12388,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F346" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12429,10 +12417,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12458,10 +12446,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12487,10 +12475,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12516,10 +12504,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12545,10 +12533,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
